--- a/output2/【河洛話注音】桃花源記【文讀音】.xlsx
+++ b/output2/【河洛話注音】桃花源記【文讀音】.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E68B3362-1D75-4DC7-A754-67251AC28EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83B69C0A-3B72-4637-AE3F-1F732B740010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="799">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1997,10 +1997,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄘㄠˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ing1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2165,10 +2161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄘㆦˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kik8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2181,10 +2173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄘㄞˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>soo3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2285,10 +2273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄘㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bi2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2317,10 +2301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄑㄧㄢˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bik8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2537,10 +2517,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄘㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ham5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2625,10 +2601,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄘㆤˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zu2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2665,10 +2637,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄘㄨㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ian1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3321,10 +3289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄘㄨㄢˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lir2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3357,10 +3321,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ㄗㄠˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㆦˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄞˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㆤˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>him1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄧㆬˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4391,6 +4389,9 @@
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="62" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -4408,9 +4409,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5553,7 +5551,7 @@
         <v>165</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -5605,11 +5603,11 @@
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="105" t="s">
-        <v>794</v>
+      <c r="B11" s="99" t="s">
+        <v>785</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -5688,7 +5686,7 @@
       <c r="Q3" s="83"/>
       <c r="R3" s="83"/>
       <c r="T3" s="92"/>
-      <c r="V3" s="99" t="s">
+      <c r="V3" s="100" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5713,17 +5711,17 @@
         <v>426</v>
       </c>
       <c r="L4" s="84" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="M4" s="84" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="N4" s="84"/>
       <c r="O4" s="84" t="s">
         <v>428</v>
       </c>
       <c r="P4" s="84" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="Q4" s="84" t="s">
         <v>430</v>
@@ -5732,7 +5730,7 @@
         <v>432</v>
       </c>
       <c r="S4" s="93"/>
-      <c r="V4" s="100"/>
+      <c r="V4" s="101"/>
     </row>
     <row r="5" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="57">
@@ -5784,7 +5782,7 @@
         <v>198</v>
       </c>
       <c r="S5" s="94"/>
-      <c r="V5" s="100"/>
+      <c r="V5" s="101"/>
     </row>
     <row r="6" spans="2:29" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="58"/>
@@ -5808,17 +5806,17 @@
         <v>427</v>
       </c>
       <c r="L6" s="85" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="M6" s="85" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="N6" s="85"/>
       <c r="O6" s="85" t="s">
         <v>429</v>
       </c>
       <c r="P6" s="85" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="Q6" s="85" t="s">
         <v>431</v>
@@ -5827,7 +5825,7 @@
         <v>433</v>
       </c>
       <c r="S6" s="95"/>
-      <c r="V6" s="100"/>
+      <c r="V6" s="101"/>
     </row>
     <row r="7" spans="2:29" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="55"/>
@@ -5848,7 +5846,7 @@
       <c r="Q7" s="83"/>
       <c r="R7" s="83"/>
       <c r="S7" s="66"/>
-      <c r="V7" s="100"/>
+      <c r="V7" s="101"/>
     </row>
     <row r="8" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
@@ -5860,7 +5858,7 @@
         <v>436</v>
       </c>
       <c r="G8" s="84" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="H8" s="84"/>
       <c r="I8" s="84" t="s">
@@ -5876,7 +5874,7 @@
         <v>444</v>
       </c>
       <c r="M8" s="84" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="N8" s="84"/>
       <c r="O8" s="84" t="s">
@@ -5892,7 +5890,7 @@
         <v>452</v>
       </c>
       <c r="S8" s="93"/>
-      <c r="V8" s="100"/>
+      <c r="V8" s="101"/>
     </row>
     <row r="9" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="57">
@@ -5946,7 +5944,7 @@
       </c>
       <c r="S9" s="94"/>
       <c r="T9" s="92"/>
-      <c r="V9" s="100"/>
+      <c r="V9" s="101"/>
     </row>
     <row r="10" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
@@ -5958,7 +5956,7 @@
         <v>437</v>
       </c>
       <c r="G10" s="85" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="H10" s="85"/>
       <c r="I10" s="85" t="s">
@@ -5974,7 +5972,7 @@
         <v>445</v>
       </c>
       <c r="M10" s="85" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="N10" s="85"/>
       <c r="O10" s="85" t="s">
@@ -5990,7 +5988,7 @@
         <v>453</v>
       </c>
       <c r="S10" s="96"/>
-      <c r="V10" s="100"/>
+      <c r="V10" s="101"/>
     </row>
     <row r="11" spans="2:29" s="66" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="65"/>
@@ -6010,25 +6008,25 @@
       <c r="P11" s="83"/>
       <c r="Q11" s="83"/>
       <c r="R11" s="83"/>
-      <c r="V11" s="100"/>
+      <c r="V11" s="101"/>
     </row>
     <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
       <c r="D12" s="84" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="E12" s="84"/>
       <c r="F12" s="84" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="G12" s="84" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="I12" s="84" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="J12" s="84" t="s">
         <v>428</v>
@@ -6038,13 +6036,13 @@
         <v>424</v>
       </c>
       <c r="M12" s="84" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="N12" s="84" t="s">
         <v>373</v>
       </c>
       <c r="O12" s="84" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="P12" s="84"/>
       <c r="Q12" s="84" t="s">
@@ -6054,7 +6052,7 @@
         <v>457</v>
       </c>
       <c r="S12" s="93"/>
-      <c r="V12" s="100"/>
+      <c r="V12" s="101"/>
     </row>
     <row r="13" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="57">
@@ -6107,25 +6105,25 @@
         <v>222</v>
       </c>
       <c r="S13" s="94"/>
-      <c r="V13" s="100"/>
+      <c r="V13" s="101"/>
     </row>
     <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
       <c r="D14" s="85" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="E14" s="85"/>
       <c r="F14" s="85" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="G14" s="85" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="H14" s="85" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="I14" s="85" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="J14" s="85" t="s">
         <v>429</v>
@@ -6135,23 +6133,23 @@
         <v>425</v>
       </c>
       <c r="M14" s="85" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="N14" s="85" t="s">
         <v>454</v>
       </c>
       <c r="O14" s="85" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="P14" s="85"/>
       <c r="Q14" s="85" t="s">
         <v>456</v>
       </c>
       <c r="R14" s="85" t="s">
-        <v>458</v>
+        <v>789</v>
       </c>
       <c r="S14" s="96"/>
-      <c r="V14" s="100"/>
+      <c r="V14" s="101"/>
     </row>
     <row r="15" spans="2:29" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="63"/>
@@ -6171,7 +6169,7 @@
       <c r="P15" s="83"/>
       <c r="Q15" s="83"/>
       <c r="R15" s="83"/>
-      <c r="V15" s="100"/>
+      <c r="V15" s="101"/>
       <c r="AC15" s="67" t="s">
         <v>185</v>
       </c>
@@ -6179,46 +6177,46 @@
     <row r="16" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="56"/>
       <c r="D16" s="84" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="E16" s="84" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F16" s="84"/>
       <c r="G16" s="84" t="s">
         <v>388</v>
       </c>
       <c r="H16" s="84" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I16" s="84" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J16" s="84" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K16" s="84"/>
       <c r="L16" s="84" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="M16" s="84" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="N16" s="84" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="O16" s="84" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P16" s="84" t="s">
         <v>442</v>
       </c>
       <c r="Q16" s="84"/>
       <c r="R16" s="84" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="S16" s="93"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="101"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="57">
@@ -6271,51 +6269,51 @@
         <v>230</v>
       </c>
       <c r="S17" s="94"/>
-      <c r="V17" s="100"/>
+      <c r="V17" s="101"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
       <c r="D18" s="85" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="E18" s="85" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F18" s="85"/>
       <c r="G18" s="85" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="H18" s="85" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I18" s="85" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J18" s="85" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K18" s="85"/>
       <c r="L18" s="85" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="M18" s="85" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="N18" s="85" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="O18" s="85" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P18" s="85" t="s">
         <v>443</v>
       </c>
       <c r="Q18" s="85"/>
       <c r="R18" s="85" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="S18" s="96"/>
-      <c r="V18" s="100"/>
+      <c r="V18" s="101"/>
     </row>
     <row r="19" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="63"/>
@@ -6335,28 +6333,28 @@
       <c r="P19" s="83"/>
       <c r="Q19" s="83"/>
       <c r="R19" s="83"/>
-      <c r="V19" s="100"/>
+      <c r="V19" s="101"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
       <c r="D20" s="84" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="E20" s="84" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="F20" s="84"/>
       <c r="G20" s="84" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="H20" s="84" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I20" s="84" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J20" s="84" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="K20" s="84"/>
       <c r="L20" s="84"/>
@@ -6367,7 +6365,7 @@
       <c r="Q20" s="84"/>
       <c r="R20" s="84"/>
       <c r="S20" s="93"/>
-      <c r="V20" s="100"/>
+      <c r="V20" s="101"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="57">
@@ -6406,28 +6404,28 @@
       <c r="Q21" s="80"/>
       <c r="R21" s="80"/>
       <c r="S21" s="94"/>
-      <c r="V21" s="100"/>
+      <c r="V21" s="101"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
       <c r="D22" s="85" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="E22" s="85" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="F22" s="85"/>
       <c r="G22" s="85" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="H22" s="85" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I22" s="85" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J22" s="85" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="K22" s="85"/>
       <c r="L22" s="85"/>
@@ -6438,7 +6436,7 @@
       <c r="Q22" s="85"/>
       <c r="R22" s="85"/>
       <c r="S22" s="96"/>
-      <c r="V22" s="101"/>
+      <c r="V22" s="102"/>
     </row>
     <row r="23" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="63"/>
@@ -6556,39 +6554,39 @@
       <c r="D28" s="84"/>
       <c r="E28" s="84"/>
       <c r="F28" s="84" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="G28" s="84" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H28" s="84" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I28" s="84" t="s">
         <v>422</v>
       </c>
       <c r="J28" s="84"/>
       <c r="K28" s="84" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L28" s="84" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M28" s="84" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N28" s="84" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O28" s="84"/>
       <c r="P28" s="84" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q28" s="84" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="R28" s="84" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="S28" s="93"/>
       <c r="U28" s="67" t="str">
@@ -6659,39 +6657,39 @@
       <c r="D30" s="85"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="G30" s="85" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H30" s="85" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I30" s="85" t="s">
         <v>423</v>
       </c>
       <c r="J30" s="85"/>
       <c r="K30" s="85" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L30" s="85" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M30" s="85" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N30" s="85" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O30" s="85"/>
       <c r="P30" s="85" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q30" s="85" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="R30" s="85" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="S30" s="96"/>
       <c r="U30" s="67" t="str">
@@ -6727,43 +6725,43 @@
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="56"/>
       <c r="D32" s="84" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E32" s="84"/>
       <c r="F32" s="84" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G32" s="84" t="s">
         <v>446</v>
       </c>
       <c r="H32" s="84" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="I32" s="84" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="J32" s="84" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="K32" s="84"/>
       <c r="L32" s="84" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M32" s="84" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N32" s="84" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O32" s="84"/>
       <c r="P32" s="84" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="Q32" s="84" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="R32" s="84" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="S32" s="93"/>
       <c r="U32" s="67" t="str">
@@ -6828,43 +6826,43 @@
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="58"/>
       <c r="D34" s="85" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E34" s="85"/>
       <c r="F34" s="85" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G34" s="85" t="s">
         <v>447</v>
       </c>
       <c r="H34" s="85" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="I34" s="85" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="J34" s="85" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="K34" s="85"/>
       <c r="L34" s="85" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M34" s="85" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N34" s="85" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O34" s="85"/>
       <c r="P34" s="85" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q34" s="85" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="R34" s="85" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="S34" s="96"/>
       <c r="V34" s="60"/>
@@ -6893,36 +6891,36 @@
       <c r="B36" s="56"/>
       <c r="D36" s="84"/>
       <c r="E36" s="84" t="s">
+        <v>498</v>
+      </c>
+      <c r="F36" s="84" t="s">
         <v>499</v>
       </c>
-      <c r="F36" s="84" t="s">
-        <v>501</v>
-      </c>
       <c r="G36" s="84" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="H36" s="84"/>
       <c r="I36" s="84" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J36" s="84" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="K36" s="84" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="L36" s="84"/>
       <c r="M36" s="84" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N36" s="84" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="O36" s="84" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="P36" s="84" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="Q36" s="84" t="s">
         <v>428</v>
@@ -6988,36 +6986,36 @@
       <c r="B38" s="58"/>
       <c r="D38" s="85"/>
       <c r="E38" s="85" t="s">
+        <v>790</v>
+      </c>
+      <c r="F38" s="85" t="s">
         <v>500</v>
       </c>
-      <c r="F38" s="85" t="s">
-        <v>502</v>
-      </c>
       <c r="G38" s="85" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="H38" s="85"/>
       <c r="I38" s="85" t="s">
-        <v>504</v>
+        <v>791</v>
       </c>
       <c r="J38" s="85" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="K38" s="85" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="L38" s="85"/>
       <c r="M38" s="85" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N38" s="85" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="O38" s="85" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="P38" s="85" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="Q38" s="85" t="s">
         <v>429</v>
@@ -7049,42 +7047,42 @@
     <row r="40" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="56"/>
       <c r="D40" s="84" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E40" s="84" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F40" s="84" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G40" s="84" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H40" s="84"/>
       <c r="I40" s="84" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="J40" s="84" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="K40" s="84" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="L40" s="84" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="M40" s="84"/>
       <c r="N40" s="84" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="O40" s="84" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="P40" s="84" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="Q40" s="84" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="R40" s="84"/>
       <c r="S40" s="93"/>
@@ -7146,42 +7144,42 @@
     <row r="42" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="58"/>
       <c r="D42" s="85" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E42" s="85" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F42" s="85" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G42" s="85" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H42" s="85"/>
       <c r="I42" s="85" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="J42" s="85" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="K42" s="85" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="L42" s="85" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M42" s="85"/>
       <c r="N42" s="85" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O42" s="85" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="P42" s="85" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="Q42" s="85" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="R42" s="85"/>
       <c r="S42" s="96"/>
@@ -7210,41 +7208,41 @@
     <row r="44" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="56"/>
       <c r="D44" s="84" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="E44" s="84" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F44" s="84" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G44" s="84"/>
       <c r="H44" s="84" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="I44" s="84" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="J44" s="84"/>
       <c r="K44" s="84" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="L44" s="84"/>
       <c r="M44" s="84" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="N44" s="84" t="s">
         <v>442</v>
       </c>
       <c r="O44" s="84" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="P44" s="84"/>
       <c r="Q44" s="84" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="R44" s="84" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="S44" s="93"/>
       <c r="V44" s="60"/>
@@ -7305,41 +7303,41 @@
     <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="58"/>
       <c r="D46" s="85" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F46" s="85" t="s">
-        <v>530</v>
+        <v>792</v>
       </c>
       <c r="G46" s="85"/>
       <c r="H46" s="85" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="I46" s="85" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="J46" s="85"/>
       <c r="K46" s="85" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="L46" s="85"/>
       <c r="M46" s="85" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="N46" s="85" t="s">
         <v>443</v>
       </c>
       <c r="O46" s="85" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="P46" s="85"/>
       <c r="Q46" s="85" t="s">
-        <v>538</v>
+        <v>793</v>
       </c>
       <c r="R46" s="85" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="S46" s="96"/>
       <c r="V46" s="60"/>
@@ -7367,42 +7365,42 @@
     <row r="48" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="56"/>
       <c r="D48" s="84" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E48" s="84" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F48" s="84"/>
       <c r="G48" s="84" t="s">
         <v>396</v>
       </c>
       <c r="H48" s="84" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="I48" s="84" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="J48" s="84" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="K48" s="84"/>
       <c r="L48" s="84" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M48" s="84" t="s">
         <v>424</v>
       </c>
       <c r="N48" s="84" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="O48" s="84" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="P48" s="84" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="Q48" s="84" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="R48" s="84"/>
       <c r="S48" s="93"/>
@@ -7464,42 +7462,42 @@
     <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="58"/>
       <c r="D50" s="85" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F50" s="85"/>
       <c r="G50" s="85" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="H50" s="85" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="I50" s="85" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="J50" s="85" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="K50" s="85"/>
       <c r="L50" s="85" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M50" s="85" t="s">
         <v>425</v>
       </c>
       <c r="N50" s="85" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="O50" s="85" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="P50" s="85" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="Q50" s="85" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="R50" s="85"/>
       <c r="S50" s="96"/>
@@ -7528,42 +7526,42 @@
     <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="56"/>
       <c r="D52" s="84" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E52" s="84" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="F52" s="84" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G52" s="84" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="H52" s="84"/>
       <c r="I52" s="84" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="J52" s="84" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="K52" s="84" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="L52" s="84" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="M52" s="84"/>
       <c r="N52" s="84" t="s">
         <v>448</v>
       </c>
       <c r="O52" s="84" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="P52" s="84" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="Q52" s="84" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="R52" s="84"/>
       <c r="S52" s="93"/>
@@ -7625,42 +7623,42 @@
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="58"/>
       <c r="D54" s="85" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="F54" s="85" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G54" s="85" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="H54" s="85"/>
       <c r="I54" s="85" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="J54" s="85" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="K54" s="85" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="L54" s="85" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="M54" s="85"/>
       <c r="N54" s="85" t="s">
         <v>449</v>
       </c>
       <c r="O54" s="85" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="P54" s="85" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="Q54" s="85" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="R54" s="85"/>
       <c r="S54" s="96"/>
@@ -7689,43 +7687,43 @@
     <row r="56" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="56"/>
       <c r="D56" s="84" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E56" s="84" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="F56" s="84" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G56" s="84" t="s">
         <v>399</v>
       </c>
       <c r="H56" s="84" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="I56" s="84"/>
       <c r="J56" s="84" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="K56" s="84" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="L56" s="84" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="M56" s="84"/>
       <c r="N56" s="84" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="O56" s="84" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="P56" s="84" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="Q56" s="84"/>
       <c r="R56" s="84" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="S56" s="93"/>
       <c r="V56" s="60"/>
@@ -7786,43 +7784,43 @@
     <row r="58" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="58"/>
       <c r="D58" s="85" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="E58" s="85" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="F58" s="85" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G58" s="85" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="H58" s="85" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="I58" s="85"/>
       <c r="J58" s="85" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="K58" s="85" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="L58" s="85" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="M58" s="85"/>
       <c r="N58" s="85" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="O58" s="85" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="P58" s="85" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="Q58" s="85"/>
       <c r="R58" s="85" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="S58" s="96"/>
       <c r="V58" s="60"/>
@@ -7850,43 +7848,43 @@
     <row r="60" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="56"/>
       <c r="D60" s="84" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="E60" s="84" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F60" s="84" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G60" s="84"/>
       <c r="H60" s="84" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="I60" s="84" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J60" s="84" t="s">
         <v>442</v>
       </c>
       <c r="K60" s="84"/>
       <c r="L60" s="84" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M60" s="84" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="N60" s="84" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="O60" s="84" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="P60" s="84"/>
       <c r="Q60" s="84" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="R60" s="84" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="S60" s="93"/>
       <c r="V60" s="60"/>
@@ -7947,43 +7945,43 @@
     <row r="62" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="58"/>
       <c r="D62" s="85" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="E62" s="85" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F62" s="85" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="G62" s="85"/>
       <c r="H62" s="85" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="I62" s="85" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="J62" s="85" t="s">
         <v>443</v>
       </c>
       <c r="K62" s="85"/>
       <c r="L62" s="85" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M62" s="85" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="N62" s="85" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="O62" s="85" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="P62" s="85"/>
       <c r="Q62" s="85" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="R62" s="85" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="S62" s="96"/>
       <c r="V62" s="60"/>
@@ -8012,40 +8010,40 @@
       <c r="B64" s="56"/>
       <c r="D64" s="84"/>
       <c r="E64" s="84" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="F64" s="84" t="s">
         <v>396</v>
       </c>
       <c r="G64" s="84"/>
       <c r="H64" s="84" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="I64" s="84" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="J64" s="84"/>
       <c r="K64" s="84" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="L64" s="84" t="s">
         <v>424</v>
       </c>
       <c r="M64" s="84" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="N64" s="84" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="O64" s="84" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="P64" s="84" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="Q64" s="84"/>
       <c r="R64" s="84" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="S64" s="93"/>
       <c r="V64" s="60"/>
@@ -8107,40 +8105,40 @@
       <c r="B66" s="58"/>
       <c r="D66" s="85"/>
       <c r="E66" s="85" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="F66" s="85" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="G66" s="85"/>
       <c r="H66" s="85" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="I66" s="85" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="J66" s="85"/>
       <c r="K66" s="85" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="L66" s="85" t="s">
         <v>425</v>
       </c>
       <c r="M66" s="85" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="N66" s="85" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="O66" s="85" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="P66" s="85" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="Q66" s="85"/>
       <c r="R66" s="85" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="S66" s="96"/>
       <c r="V66" s="60"/>
@@ -8168,40 +8166,40 @@
     <row r="68" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="56"/>
       <c r="D68" s="84" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="E68" s="84" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="F68" s="84" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G68" s="84"/>
       <c r="H68" s="84" t="s">
         <v>399</v>
       </c>
       <c r="I68" s="84" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="J68" s="84"/>
       <c r="K68" s="84"/>
       <c r="L68" s="84" t="s">
+        <v>594</v>
+      </c>
+      <c r="M68" s="84" t="s">
+        <v>596</v>
+      </c>
+      <c r="N68" s="84" t="s">
+        <v>598</v>
+      </c>
+      <c r="O68" s="84" t="s">
         <v>600</v>
       </c>
-      <c r="M68" s="84" t="s">
+      <c r="P68" s="84" t="s">
         <v>602</v>
       </c>
-      <c r="N68" s="84" t="s">
+      <c r="Q68" s="84" t="s">
         <v>604</v>
-      </c>
-      <c r="O68" s="84" t="s">
-        <v>606</v>
-      </c>
-      <c r="P68" s="84" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q68" s="84" t="s">
-        <v>610</v>
       </c>
       <c r="R68" s="84"/>
       <c r="S68" s="93"/>
@@ -8263,40 +8261,40 @@
     <row r="70" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="58"/>
       <c r="D70" s="85" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E70" s="85" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="F70" s="85" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="G70" s="85"/>
       <c r="H70" s="85" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="I70" s="85" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="J70" s="85"/>
       <c r="K70" s="85"/>
       <c r="L70" s="85" t="s">
+        <v>595</v>
+      </c>
+      <c r="M70" s="85" t="s">
+        <v>597</v>
+      </c>
+      <c r="N70" s="85" t="s">
+        <v>599</v>
+      </c>
+      <c r="O70" s="85" t="s">
         <v>601</v>
       </c>
-      <c r="M70" s="85" t="s">
+      <c r="P70" s="85" t="s">
         <v>603</v>
       </c>
-      <c r="N70" s="85" t="s">
+      <c r="Q70" s="85" t="s">
         <v>605</v>
-      </c>
-      <c r="O70" s="85" t="s">
-        <v>607</v>
-      </c>
-      <c r="P70" s="85" t="s">
-        <v>609</v>
-      </c>
-      <c r="Q70" s="85" t="s">
-        <v>611</v>
       </c>
       <c r="R70" s="85"/>
       <c r="S70" s="96"/>
@@ -8325,44 +8323,44 @@
     <row r="72" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="56"/>
       <c r="D72" s="84" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="E72" s="84" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F72" s="84" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="G72" s="84" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="H72" s="84" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="I72" s="84" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="J72" s="84" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="K72" s="84" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="L72" s="84" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="M72" s="84"/>
       <c r="N72" s="84" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="O72" s="84" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P72" s="84" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="Q72" s="84" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="R72" s="84"/>
       <c r="S72" s="93"/>
@@ -8424,44 +8422,44 @@
     <row r="74" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="58"/>
       <c r="D74" s="85" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="E74" s="85" t="s">
-        <v>615</v>
+        <v>795</v>
       </c>
       <c r="F74" s="85" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="G74" s="85" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="H74" s="85" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="I74" s="85" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="J74" s="85" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="K74" s="85" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="L74" s="85" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="M74" s="85"/>
       <c r="N74" s="85" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="O74" s="85" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P74" s="85" t="s">
-        <v>625</v>
+        <v>796</v>
       </c>
       <c r="Q74" s="85" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="R74" s="85"/>
       <c r="S74" s="96"/>
@@ -8490,40 +8488,40 @@
     <row r="76" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="56"/>
       <c r="D76" s="84" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="E76" s="84" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="F76" s="84" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G76" s="84" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="H76" s="84" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="I76" s="84" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="J76" s="84"/>
       <c r="K76" s="84"/>
       <c r="L76" s="84" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="M76" s="84"/>
       <c r="N76" s="84" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="O76" s="84" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="P76" s="84" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="Q76" s="84" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="R76" s="84"/>
       <c r="S76" s="93"/>
@@ -8585,40 +8583,40 @@
     <row r="78" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="58"/>
       <c r="D78" s="85" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="E78" s="85" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F78" s="85" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="G78" s="85" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="H78" s="85" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="I78" s="85" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="J78" s="85"/>
       <c r="K78" s="85"/>
       <c r="L78" s="85" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="M78" s="85"/>
       <c r="N78" s="85" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="O78" s="85" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="P78" s="85" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="Q78" s="85" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="R78" s="85"/>
       <c r="S78" s="96"/>
@@ -8648,29 +8646,29 @@
       <c r="B80" s="56"/>
       <c r="D80" s="84"/>
       <c r="E80" s="84" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="F80" s="84" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="G80" s="84" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="H80" s="84" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="I80" s="84" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="J80" s="84"/>
       <c r="K80" s="84" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="L80" s="84" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="M80" s="84" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="N80" s="84"/>
       <c r="O80" s="84" t="s">
@@ -8678,10 +8676,10 @@
       </c>
       <c r="P80" s="84"/>
       <c r="Q80" s="84" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="R80" s="84" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="S80" s="93"/>
       <c r="V80" s="60"/>
@@ -8743,29 +8741,29 @@
       <c r="B82" s="58"/>
       <c r="D82" s="85"/>
       <c r="E82" s="85" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F82" s="85" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="G82" s="85" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="H82" s="85" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="I82" s="85" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="J82" s="85"/>
       <c r="K82" s="85" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="L82" s="85" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="M82" s="85" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="N82" s="85"/>
       <c r="O82" s="85" t="s">
@@ -8773,10 +8771,10 @@
       </c>
       <c r="P82" s="85"/>
       <c r="Q82" s="85" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="R82" s="85" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="S82" s="96"/>
       <c r="V82" s="60"/>
@@ -8804,45 +8802,45 @@
     <row r="84" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="56"/>
       <c r="D84" s="84" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E84" s="84" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F84" s="84" t="s">
         <v>430</v>
       </c>
       <c r="G84" s="84" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="H84" s="84" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="I84" s="84" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="J84" s="84" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="K84" s="84"/>
       <c r="L84" s="84" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="M84" s="84" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="N84" s="84" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="O84" s="84"/>
       <c r="P84" s="84" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="Q84" s="84" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="R84" s="84" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="S84" s="93"/>
       <c r="V84" s="60"/>
@@ -8903,45 +8901,45 @@
     <row r="86" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="58"/>
       <c r="D86" s="85" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E86" s="85" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F86" s="85" t="s">
         <v>431</v>
       </c>
       <c r="G86" s="85" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="H86" s="85" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="I86" s="85" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="J86" s="85" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="K86" s="85"/>
       <c r="L86" s="85" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="M86" s="85" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="N86" s="85" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="O86" s="85"/>
       <c r="P86" s="85" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="Q86" s="85" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="R86" s="85" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="S86" s="96"/>
       <c r="V86" s="60"/>
@@ -8969,42 +8967,42 @@
     <row r="88" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="56"/>
       <c r="D88" s="84" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E88" s="84" t="s">
         <v>434</v>
       </c>
       <c r="F88" s="84" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G88" s="84" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H88" s="84" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="I88" s="84"/>
       <c r="J88" s="84" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="K88" s="84" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="L88" s="84" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="M88" s="84" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="N88" s="84"/>
       <c r="O88" s="84" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="P88" s="84" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="Q88" s="84" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="R88" s="84"/>
       <c r="S88" s="93"/>
@@ -9066,42 +9064,42 @@
     <row r="90" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="58"/>
       <c r="D90" s="85" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E90" s="85" t="s">
         <v>435</v>
       </c>
       <c r="F90" s="85" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="G90" s="85" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H90" s="85" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="I90" s="85"/>
       <c r="J90" s="85" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="K90" s="85" t="s">
-        <v>625</v>
+        <v>796</v>
       </c>
       <c r="L90" s="85" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="M90" s="85" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="N90" s="85"/>
       <c r="O90" s="85" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="P90" s="85" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q90" s="85" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="R90" s="85"/>
       <c r="S90" s="96"/>
@@ -9130,43 +9128,43 @@
     <row r="92" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="56"/>
       <c r="D92" s="84" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="E92" s="84" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="F92" s="84"/>
       <c r="G92" s="84" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="H92" s="84" t="s">
         <v>424</v>
       </c>
       <c r="I92" s="84" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="J92" s="84" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="K92" s="84" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="L92" s="84"/>
       <c r="M92" s="84"/>
       <c r="N92" s="84" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="O92" s="84" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="P92" s="84" t="s">
         <v>430</v>
       </c>
       <c r="Q92" s="84" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="R92" s="84" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="S92" s="93"/>
       <c r="V92" s="60"/>
@@ -9227,43 +9225,43 @@
     <row r="94" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="58"/>
       <c r="D94" s="85" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="E94" s="85" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="F94" s="85"/>
       <c r="G94" s="85" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="H94" s="85" t="s">
         <v>425</v>
       </c>
       <c r="I94" s="85" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="J94" s="85" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="K94" s="85" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="L94" s="85"/>
       <c r="M94" s="85"/>
       <c r="N94" s="85" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="O94" s="85" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="P94" s="85" t="s">
         <v>431</v>
       </c>
       <c r="Q94" s="85" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="R94" s="85" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="S94" s="96"/>
       <c r="V94" s="60"/>
@@ -9291,10 +9289,10 @@
     <row r="96" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="56"/>
       <c r="D96" s="84" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="E96" s="84" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="F96" s="84"/>
       <c r="G96" s="84"/>
@@ -9346,10 +9344,10 @@
     <row r="98" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="58"/>
       <c r="D98" s="85" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="E98" s="85" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F98" s="85"/>
       <c r="G98" s="85"/>
@@ -9475,27 +9473,27 @@
       <c r="D104" s="84"/>
       <c r="E104" s="84"/>
       <c r="F104" s="84" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="G104" s="84" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="H104" s="84"/>
       <c r="I104" s="84" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J104" s="84" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K104" s="84" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L104" s="84"/>
       <c r="M104" s="84" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N104" s="84" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="O104" s="84" t="s">
         <v>415</v>
@@ -9505,7 +9503,7 @@
       </c>
       <c r="Q104" s="84"/>
       <c r="R104" s="84" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="S104" s="93"/>
       <c r="V104" s="60"/>
@@ -9568,37 +9566,37 @@
       <c r="D106" s="85"/>
       <c r="E106" s="85"/>
       <c r="F106" s="85" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="G106" s="85" t="s">
-        <v>625</v>
+        <v>796</v>
       </c>
       <c r="H106" s="85"/>
       <c r="I106" s="85" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J106" s="85" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K106" s="85" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L106" s="85"/>
       <c r="M106" s="85" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N106" s="85" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="O106" s="85" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="P106" s="85" t="s">
         <v>441</v>
       </c>
       <c r="Q106" s="85"/>
       <c r="R106" s="85" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="S106" s="96"/>
       <c r="V106" s="60"/>
@@ -9626,27 +9624,27 @@
     <row r="108" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="56"/>
       <c r="D108" s="84" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="E108" s="84" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="F108" s="84" t="s">
         <v>442</v>
       </c>
       <c r="G108" s="84"/>
       <c r="H108" s="84" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="I108" s="84" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="J108" s="84" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="K108" s="84"/>
       <c r="L108" s="84" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="M108" s="84" t="s">
         <v>420</v>
@@ -9656,13 +9654,13 @@
       </c>
       <c r="O108" s="84"/>
       <c r="P108" s="84" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="Q108" s="84" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="R108" s="84" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="S108" s="93"/>
       <c r="V108" s="60"/>
@@ -9723,43 +9721,43 @@
     <row r="110" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="58"/>
       <c r="D110" s="85" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="E110" s="85" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F110" s="85" t="s">
         <v>443</v>
       </c>
       <c r="G110" s="85"/>
       <c r="H110" s="85" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="I110" s="85" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="J110" s="85" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="K110" s="85"/>
       <c r="L110" s="85" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="M110" s="85" t="s">
         <v>421</v>
       </c>
       <c r="N110" s="85" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="O110" s="85"/>
       <c r="P110" s="85" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="Q110" s="85" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="R110" s="85" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="S110" s="96"/>
       <c r="V110" s="60"/>
@@ -9794,35 +9792,35 @@
         <v>413</v>
       </c>
       <c r="G112" s="84" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="H112" s="84" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="I112" s="84" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="J112" s="84" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="K112" s="84" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L112" s="84" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="M112" s="84"/>
       <c r="N112" s="84" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="O112" s="84" t="s">
         <v>415</v>
       </c>
       <c r="P112" s="84" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="Q112" s="84" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="R112" s="84"/>
       <c r="S112" s="93"/>
@@ -9888,38 +9886,38 @@
         <v>421</v>
       </c>
       <c r="F114" s="85" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="G114" s="85" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="H114" s="85" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="I114" s="85" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="J114" s="85" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="K114" s="85" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L114" s="85" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M114" s="85"/>
       <c r="N114" s="85" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="O114" s="85" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="P114" s="85" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="Q114" s="85" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="R114" s="85"/>
       <c r="S114" s="96"/>
@@ -9948,19 +9946,19 @@
     <row r="116" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="56"/>
       <c r="D116" s="84" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="E116" s="84" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="F116" s="84" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="G116" s="84" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H116" s="84" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I116" s="84" t="s">
         <v>440</v>
@@ -10017,19 +10015,19 @@
     <row r="118" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B118" s="58"/>
       <c r="D118" s="85" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="E118" s="85" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="F118" s="85" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="G118" s="85" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H118" s="85" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I118" s="85" t="s">
         <v>441</v>
@@ -10154,36 +10152,36 @@
       <c r="D124" s="84"/>
       <c r="E124" s="84"/>
       <c r="F124" s="84" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G124" s="84" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="H124" s="84" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="I124" s="84" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="J124" s="84" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="K124" s="84"/>
       <c r="L124" s="84" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="M124" s="84" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="N124" s="84" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="O124" s="84" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="P124" s="84"/>
       <c r="Q124" s="84" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="R124" s="84" t="s">
         <v>442</v>
@@ -10249,36 +10247,36 @@
       <c r="D126" s="85"/>
       <c r="E126" s="85"/>
       <c r="F126" s="85" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="G126" s="85" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="H126" s="85" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="I126" s="85" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="J126" s="85" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="K126" s="85"/>
       <c r="L126" s="85" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="M126" s="85" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="N126" s="85" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="O126" s="85" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="P126" s="85"/>
       <c r="Q126" s="85" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="R126" s="85" t="s">
         <v>443</v>
@@ -10310,40 +10308,40 @@
       <c r="B128" s="56"/>
       <c r="D128" s="84"/>
       <c r="E128" s="84" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F128" s="84" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G128" s="84" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="H128" s="84" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="I128" s="84"/>
       <c r="J128" s="84" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="K128" s="84" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="L128" s="84"/>
       <c r="M128" s="84" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="N128" s="84" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="O128" s="84" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="P128" s="84"/>
       <c r="Q128" s="84" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="R128" s="84" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="S128" s="93"/>
       <c r="V128" s="60"/>
@@ -10357,7 +10355,7 @@
         <v>191</v>
       </c>
       <c r="E129" s="80" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="F129" s="80" t="s">
         <v>257</v>
@@ -10405,40 +10403,40 @@
       <c r="B130" s="58"/>
       <c r="D130" s="85"/>
       <c r="E130" s="85" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F130" s="85" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G130" s="85" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="H130" s="85" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="I130" s="85"/>
       <c r="J130" s="85" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="K130" s="85" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="L130" s="85"/>
       <c r="M130" s="85" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="N130" s="85" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="O130" s="85" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="P130" s="85"/>
       <c r="Q130" s="85" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="R130" s="85" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="S130" s="96"/>
       <c r="V130" s="60"/>
@@ -10466,16 +10464,16 @@
     <row r="132" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B132" s="56"/>
       <c r="D132" s="84" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="E132" s="84" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="F132" s="84" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="G132" s="84" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="H132" s="84"/>
       <c r="I132" s="84"/>
@@ -10527,16 +10525,16 @@
     <row r="134" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B134" s="58"/>
       <c r="D134" s="85" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="E134" s="85" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="F134" s="85" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="G134" s="85" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="H134" s="85"/>
       <c r="I134" s="85"/>
@@ -12730,187 +12728,187 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163 D111:R111">
-    <cfRule type="expression" dxfId="45" priority="45">
+  <conditionalFormatting sqref="D7:R7">
+    <cfRule type="expression" dxfId="45" priority="38">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="37">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="46">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:R11">
+    <cfRule type="expression" dxfId="43" priority="36">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="35">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:R15">
+    <cfRule type="expression" dxfId="41" priority="34">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="33">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:R19">
+    <cfRule type="expression" dxfId="39" priority="31">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="43" priority="43">
+  <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
+    <cfRule type="expression" dxfId="37" priority="46">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="45">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="44">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:R27">
+    <cfRule type="expression" dxfId="35" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="29">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:R31">
+    <cfRule type="expression" dxfId="33" priority="28">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="27">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:R35">
+    <cfRule type="expression" dxfId="31" priority="25">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="26">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:R43">
+    <cfRule type="expression" dxfId="29" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="23">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:R47">
+    <cfRule type="expression" dxfId="27" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="21">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51:R51">
+    <cfRule type="expression" dxfId="25" priority="19">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="20">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55:R55">
+    <cfRule type="expression" dxfId="23" priority="18">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="17">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59:R59">
+    <cfRule type="expression" dxfId="21" priority="16">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="15">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63:R63">
+    <cfRule type="expression" dxfId="19" priority="13">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="14">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67:R67">
+    <cfRule type="expression" dxfId="17" priority="12">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="11">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71:R71">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75:R75">
+    <cfRule type="expression" dxfId="13" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="7">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D79:R79">
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83:R83">
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D107:R107">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
+    <cfRule type="expression" dxfId="5" priority="43">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="44">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="41" priority="41">
+    <cfRule type="expression" dxfId="3" priority="41">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="42">
+    <cfRule type="expression" dxfId="2" priority="42">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="39" priority="39">
+    <cfRule type="expression" dxfId="1" priority="39">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="40">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="37" priority="37">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="38">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="35" priority="35">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="36">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="33" priority="33">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="34">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="31" priority="31">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="29" priority="29">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="27" priority="27">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="25" priority="25">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="23" priority="23">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="21" priority="21">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="19" priority="19">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="0" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12976,7 +12974,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="103" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -12994,7 +12992,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="102" t="s">
+      <c r="I5" s="103" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -13019,7 +13017,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="103"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -13039,7 +13037,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="103"/>
+      <c r="I6" s="104"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -13061,7 +13059,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="103"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -13077,7 +13075,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="103"/>
+      <c r="I7" s="104"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -13099,7 +13097,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="103"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -13115,7 +13113,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="103"/>
+      <c r="I8" s="104"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -13137,7 +13135,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="103"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -13153,7 +13151,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="103"/>
+      <c r="I9" s="104"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -13175,7 +13173,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="104"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -13191,7 +13189,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="104"/>
+      <c r="I10" s="105"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -13214,7 +13212,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="103" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -13232,7 +13230,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="102" t="s">
+      <c r="I11" s="103" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -13256,7 +13254,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="103"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -13276,7 +13274,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="103"/>
+      <c r="I12" s="104"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -13296,7 +13294,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="103"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -13310,7 +13308,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="103"/>
+      <c r="I13" s="104"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -13330,7 +13328,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="103"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -13344,7 +13342,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="103"/>
+      <c r="I14" s="104"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -13364,7 +13362,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="103"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -13378,7 +13376,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="103"/>
+      <c r="I15" s="104"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -13398,7 +13396,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="104"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -13412,7 +13410,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="104"/>
+      <c r="I16" s="105"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>

--- a/output2/【河洛話注音】桃花源記【文讀音】.xlsx
+++ b/output2/【河洛話注音】桃花源記【文讀音】.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83B69C0A-3B72-4637-AE3F-1F732B740010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A724FC6B-7FE7-4B24-A3DD-1129A313B622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-26505" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -1941,14 +1941,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hng7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆭ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hut4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2317,14 +2309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>thang1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㄤˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄍㆤˉ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2457,14 +2441,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kiann1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㆩˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>soo2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2941,14 +2917,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>penn7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㆥ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ziong1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3037,14 +3005,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kun6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄨㄣˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lim5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3289,22 +3249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lir2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khir3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>語音類型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3358,6 +3302,62 @@
   </si>
   <si>
     <t>ㄏㄧㆬˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄢˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kin7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄣ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧㄥ˫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5551,7 +5551,7 @@
         <v>165</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -5604,10 +5604,10 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="99" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
     </row>
   </sheetData>
@@ -5628,7 +5628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:AC242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A122" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A123" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
@@ -5711,17 +5711,17 @@
         <v>426</v>
       </c>
       <c r="L4" s="84" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="M4" s="84" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="N4" s="84"/>
       <c r="O4" s="84" t="s">
         <v>428</v>
       </c>
       <c r="P4" s="84" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="Q4" s="84" t="s">
         <v>430</v>
@@ -5806,17 +5806,17 @@
         <v>427</v>
       </c>
       <c r="L6" s="85" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="M6" s="85" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="N6" s="85"/>
       <c r="O6" s="85" t="s">
         <v>429</v>
       </c>
       <c r="P6" s="85" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="Q6" s="85" t="s">
         <v>431</v>
@@ -5858,7 +5858,7 @@
         <v>436</v>
       </c>
       <c r="G8" s="84" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="H8" s="84"/>
       <c r="I8" s="84" t="s">
@@ -5871,23 +5871,23 @@
         <v>442</v>
       </c>
       <c r="L8" s="84" t="s">
-        <v>444</v>
+        <v>785</v>
       </c>
       <c r="M8" s="84" t="s">
-        <v>718</v>
+        <v>787</v>
       </c>
       <c r="N8" s="84"/>
       <c r="O8" s="84" t="s">
+        <v>444</v>
+      </c>
+      <c r="P8" s="84" t="s">
         <v>446</v>
       </c>
-      <c r="P8" s="84" t="s">
+      <c r="Q8" s="84" t="s">
         <v>448</v>
       </c>
-      <c r="Q8" s="84" t="s">
+      <c r="R8" s="84" t="s">
         <v>450</v>
-      </c>
-      <c r="R8" s="84" t="s">
-        <v>452</v>
       </c>
       <c r="S8" s="93"/>
       <c r="V8" s="101"/>
@@ -5956,7 +5956,7 @@
         <v>437</v>
       </c>
       <c r="G10" s="85" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="H10" s="85"/>
       <c r="I10" s="85" t="s">
@@ -5969,23 +5969,23 @@
         <v>443</v>
       </c>
       <c r="L10" s="85" t="s">
-        <v>445</v>
+        <v>786</v>
       </c>
       <c r="M10" s="85" t="s">
-        <v>719</v>
+        <v>788</v>
       </c>
       <c r="N10" s="85"/>
       <c r="O10" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="P10" s="85" t="s">
         <v>447</v>
       </c>
-      <c r="P10" s="85" t="s">
+      <c r="Q10" s="85" t="s">
         <v>449</v>
       </c>
-      <c r="Q10" s="85" t="s">
+      <c r="R10" s="85" t="s">
         <v>451</v>
-      </c>
-      <c r="R10" s="85" t="s">
-        <v>453</v>
       </c>
       <c r="S10" s="96"/>
       <c r="V10" s="101"/>
@@ -6013,20 +6013,20 @@
     <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
       <c r="D12" s="84" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="E12" s="84"/>
       <c r="F12" s="84" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="G12" s="84" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I12" s="84" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="J12" s="84" t="s">
         <v>428</v>
@@ -6036,20 +6036,20 @@
         <v>424</v>
       </c>
       <c r="M12" s="84" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="N12" s="84" t="s">
         <v>373</v>
       </c>
       <c r="O12" s="84" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="P12" s="84"/>
       <c r="Q12" s="84" t="s">
+        <v>453</v>
+      </c>
+      <c r="R12" s="84" t="s">
         <v>455</v>
-      </c>
-      <c r="R12" s="84" t="s">
-        <v>457</v>
       </c>
       <c r="S12" s="93"/>
       <c r="V12" s="101"/>
@@ -6110,20 +6110,20 @@
     <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
       <c r="D14" s="85" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="E14" s="85"/>
       <c r="F14" s="85" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="G14" s="85" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="H14" s="85" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I14" s="85" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="J14" s="85" t="s">
         <v>429</v>
@@ -6133,20 +6133,20 @@
         <v>425</v>
       </c>
       <c r="M14" s="85" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="N14" s="85" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O14" s="85" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="P14" s="85"/>
       <c r="Q14" s="85" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="R14" s="85" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="S14" s="96"/>
       <c r="V14" s="101"/>
@@ -6177,43 +6177,43 @@
     <row r="16" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="56"/>
       <c r="D16" s="84" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E16" s="84" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F16" s="84"/>
       <c r="G16" s="84" t="s">
         <v>388</v>
       </c>
       <c r="H16" s="84" t="s">
+        <v>456</v>
+      </c>
+      <c r="I16" s="84" t="s">
         <v>458</v>
       </c>
-      <c r="I16" s="84" t="s">
+      <c r="J16" s="84" t="s">
         <v>460</v>
-      </c>
-      <c r="J16" s="84" t="s">
-        <v>462</v>
       </c>
       <c r="K16" s="84"/>
       <c r="L16" s="84" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="M16" s="84" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="N16" s="84" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="O16" s="84" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="P16" s="84" t="s">
         <v>442</v>
       </c>
       <c r="Q16" s="84"/>
       <c r="R16" s="84" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="S16" s="93"/>
       <c r="V16" s="101"/>
@@ -6274,43 +6274,43 @@
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
       <c r="D18" s="85" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="E18" s="85" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F18" s="85"/>
       <c r="G18" s="85" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="H18" s="85" t="s">
+        <v>457</v>
+      </c>
+      <c r="I18" s="85" t="s">
         <v>459</v>
       </c>
-      <c r="I18" s="85" t="s">
+      <c r="J18" s="85" t="s">
         <v>461</v>
-      </c>
-      <c r="J18" s="85" t="s">
-        <v>463</v>
       </c>
       <c r="K18" s="85"/>
       <c r="L18" s="85" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="M18" s="85" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="N18" s="85" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="O18" s="85" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="P18" s="85" t="s">
         <v>443</v>
       </c>
       <c r="Q18" s="85"/>
       <c r="R18" s="85" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="S18" s="96"/>
       <c r="V18" s="101"/>
@@ -6338,23 +6338,23 @@
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
       <c r="D20" s="84" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="E20" s="84" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="F20" s="84"/>
       <c r="G20" s="84" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="H20" s="84" t="s">
+        <v>468</v>
+      </c>
+      <c r="I20" s="84" t="s">
         <v>470</v>
       </c>
-      <c r="I20" s="84" t="s">
-        <v>472</v>
-      </c>
       <c r="J20" s="84" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="K20" s="84"/>
       <c r="L20" s="84"/>
@@ -6409,23 +6409,23 @@
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
       <c r="D22" s="85" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="E22" s="85" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="F22" s="85"/>
       <c r="G22" s="85" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="H22" s="85" t="s">
+        <v>469</v>
+      </c>
+      <c r="I22" s="85" t="s">
         <v>471</v>
       </c>
-      <c r="I22" s="85" t="s">
-        <v>473</v>
-      </c>
       <c r="J22" s="85" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="K22" s="85"/>
       <c r="L22" s="85"/>
@@ -6554,39 +6554,39 @@
       <c r="D28" s="84"/>
       <c r="E28" s="84"/>
       <c r="F28" s="84" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="G28" s="84" t="s">
+        <v>472</v>
+      </c>
+      <c r="H28" s="84" t="s">
         <v>474</v>
-      </c>
-      <c r="H28" s="84" t="s">
-        <v>476</v>
       </c>
       <c r="I28" s="84" t="s">
         <v>422</v>
       </c>
       <c r="J28" s="84"/>
       <c r="K28" s="84" t="s">
+        <v>476</v>
+      </c>
+      <c r="L28" s="84" t="s">
         <v>478</v>
       </c>
-      <c r="L28" s="84" t="s">
+      <c r="M28" s="84" t="s">
         <v>480</v>
       </c>
-      <c r="M28" s="84" t="s">
+      <c r="N28" s="84" t="s">
         <v>482</v>
-      </c>
-      <c r="N28" s="84" t="s">
-        <v>484</v>
       </c>
       <c r="O28" s="84"/>
       <c r="P28" s="84" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q28" s="84" t="s">
+        <v>726</v>
+      </c>
+      <c r="R28" s="84" t="s">
         <v>484</v>
-      </c>
-      <c r="Q28" s="84" t="s">
-        <v>736</v>
-      </c>
-      <c r="R28" s="84" t="s">
-        <v>486</v>
       </c>
       <c r="S28" s="93"/>
       <c r="U28" s="67" t="str">
@@ -6657,39 +6657,39 @@
       <c r="D30" s="85"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="G30" s="85" t="s">
+        <v>473</v>
+      </c>
+      <c r="H30" s="85" t="s">
         <v>475</v>
-      </c>
-      <c r="H30" s="85" t="s">
-        <v>477</v>
       </c>
       <c r="I30" s="85" t="s">
         <v>423</v>
       </c>
       <c r="J30" s="85"/>
       <c r="K30" s="85" t="s">
+        <v>477</v>
+      </c>
+      <c r="L30" s="85" t="s">
         <v>479</v>
       </c>
-      <c r="L30" s="85" t="s">
+      <c r="M30" s="85" t="s">
         <v>481</v>
       </c>
-      <c r="M30" s="85" t="s">
+      <c r="N30" s="85" t="s">
         <v>483</v>
-      </c>
-      <c r="N30" s="85" t="s">
-        <v>485</v>
       </c>
       <c r="O30" s="85"/>
       <c r="P30" s="85" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q30" s="85" t="s">
+        <v>727</v>
+      </c>
+      <c r="R30" s="85" t="s">
         <v>485</v>
-      </c>
-      <c r="Q30" s="85" t="s">
-        <v>737</v>
-      </c>
-      <c r="R30" s="85" t="s">
-        <v>487</v>
       </c>
       <c r="S30" s="96"/>
       <c r="U30" s="67" t="str">
@@ -6725,43 +6725,43 @@
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="56"/>
       <c r="D32" s="84" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E32" s="84"/>
       <c r="F32" s="84" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G32" s="84" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H32" s="84" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="I32" s="84" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="J32" s="84" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="K32" s="84"/>
       <c r="L32" s="84" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M32" s="84" t="s">
+        <v>490</v>
+      </c>
+      <c r="N32" s="84" t="s">
         <v>492</v>
-      </c>
-      <c r="N32" s="84" t="s">
-        <v>494</v>
       </c>
       <c r="O32" s="84"/>
       <c r="P32" s="84" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="Q32" s="84" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="R32" s="84" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="S32" s="93"/>
       <c r="U32" s="67" t="str">
@@ -6826,43 +6826,43 @@
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="58"/>
       <c r="D34" s="85" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E34" s="85"/>
       <c r="F34" s="85" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G34" s="85" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H34" s="85" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="I34" s="85" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="J34" s="85" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="K34" s="85"/>
       <c r="L34" s="85" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M34" s="85" t="s">
+        <v>491</v>
+      </c>
+      <c r="N34" s="85" t="s">
         <v>493</v>
-      </c>
-      <c r="N34" s="85" t="s">
-        <v>495</v>
       </c>
       <c r="O34" s="85"/>
       <c r="P34" s="85" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="Q34" s="85" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="R34" s="85" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="S34" s="96"/>
       <c r="V34" s="60"/>
@@ -6891,36 +6891,36 @@
       <c r="B36" s="56"/>
       <c r="D36" s="84"/>
       <c r="E36" s="84" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F36" s="84" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G36" s="84" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="H36" s="84"/>
       <c r="I36" s="84" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J36" s="84" t="s">
-        <v>538</v>
+        <v>789</v>
       </c>
       <c r="K36" s="84" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="L36" s="84"/>
       <c r="M36" s="84" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="N36" s="84" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="O36" s="84" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="P36" s="84" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="Q36" s="84" t="s">
         <v>428</v>
@@ -6986,36 +6986,36 @@
       <c r="B38" s="58"/>
       <c r="D38" s="85"/>
       <c r="E38" s="85" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="F38" s="85" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G38" s="85" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="H38" s="85"/>
       <c r="I38" s="85" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="J38" s="85" t="s">
-        <v>539</v>
+        <v>790</v>
       </c>
       <c r="K38" s="85" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="L38" s="85"/>
       <c r="M38" s="85" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N38" s="85" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="O38" s="85" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="P38" s="85" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="Q38" s="85" t="s">
         <v>429</v>
@@ -7047,42 +7047,42 @@
     <row r="40" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="56"/>
       <c r="D40" s="84" t="s">
+        <v>502</v>
+      </c>
+      <c r="E40" s="84" t="s">
         <v>504</v>
       </c>
-      <c r="E40" s="84" t="s">
+      <c r="F40" s="84" t="s">
         <v>506</v>
       </c>
-      <c r="F40" s="84" t="s">
+      <c r="G40" s="84" t="s">
         <v>508</v>
-      </c>
-      <c r="G40" s="84" t="s">
-        <v>510</v>
       </c>
       <c r="H40" s="84"/>
       <c r="I40" s="84" t="s">
+        <v>510</v>
+      </c>
+      <c r="J40" s="84" t="s">
         <v>512</v>
       </c>
-      <c r="J40" s="84" t="s">
+      <c r="K40" s="84" t="s">
         <v>514</v>
       </c>
-      <c r="K40" s="84" t="s">
+      <c r="L40" s="84" t="s">
         <v>516</v>
-      </c>
-      <c r="L40" s="84" t="s">
-        <v>518</v>
       </c>
       <c r="M40" s="84"/>
       <c r="N40" s="84" t="s">
+        <v>518</v>
+      </c>
+      <c r="O40" s="84" t="s">
+        <v>490</v>
+      </c>
+      <c r="P40" s="84" t="s">
         <v>520</v>
       </c>
-      <c r="O40" s="84" t="s">
-        <v>492</v>
-      </c>
-      <c r="P40" s="84" t="s">
-        <v>522</v>
-      </c>
       <c r="Q40" s="84" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="R40" s="84"/>
       <c r="S40" s="93"/>
@@ -7144,42 +7144,42 @@
     <row r="42" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="58"/>
       <c r="D42" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="E42" s="85" t="s">
         <v>505</v>
       </c>
-      <c r="E42" s="85" t="s">
+      <c r="F42" s="85" t="s">
         <v>507</v>
       </c>
-      <c r="F42" s="85" t="s">
+      <c r="G42" s="85" t="s">
         <v>509</v>
-      </c>
-      <c r="G42" s="85" t="s">
-        <v>511</v>
       </c>
       <c r="H42" s="85"/>
       <c r="I42" s="85" t="s">
+        <v>511</v>
+      </c>
+      <c r="J42" s="85" t="s">
         <v>513</v>
       </c>
-      <c r="J42" s="85" t="s">
+      <c r="K42" s="85" t="s">
         <v>515</v>
       </c>
-      <c r="K42" s="85" t="s">
+      <c r="L42" s="85" t="s">
         <v>517</v>
-      </c>
-      <c r="L42" s="85" t="s">
-        <v>519</v>
       </c>
       <c r="M42" s="85"/>
       <c r="N42" s="85" t="s">
+        <v>519</v>
+      </c>
+      <c r="O42" s="85" t="s">
+        <v>491</v>
+      </c>
+      <c r="P42" s="85" t="s">
         <v>521</v>
       </c>
-      <c r="O42" s="85" t="s">
-        <v>493</v>
-      </c>
-      <c r="P42" s="85" t="s">
-        <v>523</v>
-      </c>
       <c r="Q42" s="85" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="R42" s="85"/>
       <c r="S42" s="96"/>
@@ -7208,41 +7208,41 @@
     <row r="44" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="56"/>
       <c r="D44" s="84" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="E44" s="84" t="s">
+        <v>522</v>
+      </c>
+      <c r="F44" s="84" t="s">
         <v>524</v>
-      </c>
-      <c r="F44" s="84" t="s">
-        <v>526</v>
       </c>
       <c r="G44" s="84"/>
       <c r="H44" s="84" t="s">
+        <v>525</v>
+      </c>
+      <c r="I44" s="84" t="s">
         <v>527</v>
-      </c>
-      <c r="I44" s="84" t="s">
-        <v>529</v>
       </c>
       <c r="J44" s="84"/>
       <c r="K44" s="84" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="L44" s="84"/>
       <c r="M44" s="84" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N44" s="84" t="s">
         <v>442</v>
       </c>
       <c r="O44" s="84" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="P44" s="84"/>
       <c r="Q44" s="84" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="R44" s="84" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="S44" s="93"/>
       <c r="V44" s="60"/>
@@ -7303,41 +7303,41 @@
     <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="58"/>
       <c r="D46" s="85" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F46" s="85" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="G46" s="85"/>
       <c r="H46" s="85" t="s">
+        <v>526</v>
+      </c>
+      <c r="I46" s="85" t="s">
         <v>528</v>
-      </c>
-      <c r="I46" s="85" t="s">
-        <v>530</v>
       </c>
       <c r="J46" s="85"/>
       <c r="K46" s="85" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="L46" s="85"/>
       <c r="M46" s="85" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="N46" s="85" t="s">
         <v>443</v>
       </c>
       <c r="O46" s="85" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="P46" s="85"/>
       <c r="Q46" s="85" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="R46" s="85" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="S46" s="96"/>
       <c r="V46" s="60"/>
@@ -7365,42 +7365,42 @@
     <row r="48" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="56"/>
       <c r="D48" s="84" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E48" s="84" t="s">
-        <v>538</v>
+        <v>789</v>
       </c>
       <c r="F48" s="84"/>
       <c r="G48" s="84" t="s">
         <v>396</v>
       </c>
       <c r="H48" s="84" t="s">
+        <v>537</v>
+      </c>
+      <c r="I48" s="84" t="s">
+        <v>539</v>
+      </c>
+      <c r="J48" s="84" t="s">
         <v>541</v>
-      </c>
-      <c r="I48" s="84" t="s">
-        <v>543</v>
-      </c>
-      <c r="J48" s="84" t="s">
-        <v>545</v>
       </c>
       <c r="K48" s="84"/>
       <c r="L48" s="84" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M48" s="84" t="s">
         <v>424</v>
       </c>
       <c r="N48" s="84" t="s">
+        <v>543</v>
+      </c>
+      <c r="O48" s="84" t="s">
+        <v>545</v>
+      </c>
+      <c r="P48" s="84" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q48" s="84" t="s">
         <v>547</v>
-      </c>
-      <c r="O48" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="P48" s="84" t="s">
-        <v>748</v>
-      </c>
-      <c r="Q48" s="84" t="s">
-        <v>551</v>
       </c>
       <c r="R48" s="84"/>
       <c r="S48" s="93"/>
@@ -7462,42 +7462,42 @@
     <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="58"/>
       <c r="D50" s="85" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>539</v>
+        <v>790</v>
       </c>
       <c r="F50" s="85"/>
       <c r="G50" s="85" t="s">
+        <v>536</v>
+      </c>
+      <c r="H50" s="85" t="s">
+        <v>538</v>
+      </c>
+      <c r="I50" s="85" t="s">
         <v>540</v>
       </c>
-      <c r="H50" s="85" t="s">
+      <c r="J50" s="85" t="s">
         <v>542</v>
-      </c>
-      <c r="I50" s="85" t="s">
-        <v>544</v>
-      </c>
-      <c r="J50" s="85" t="s">
-        <v>546</v>
       </c>
       <c r="K50" s="85"/>
       <c r="L50" s="85" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="M50" s="85" t="s">
         <v>425</v>
       </c>
       <c r="N50" s="85" t="s">
+        <v>544</v>
+      </c>
+      <c r="O50" s="85" t="s">
+        <v>546</v>
+      </c>
+      <c r="P50" s="85" t="s">
+        <v>739</v>
+      </c>
+      <c r="Q50" s="85" t="s">
         <v>548</v>
-      </c>
-      <c r="O50" s="85" t="s">
-        <v>550</v>
-      </c>
-      <c r="P50" s="85" t="s">
-        <v>749</v>
-      </c>
-      <c r="Q50" s="85" t="s">
-        <v>552</v>
       </c>
       <c r="R50" s="85"/>
       <c r="S50" s="96"/>
@@ -7526,42 +7526,42 @@
     <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="56"/>
       <c r="D52" s="84" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E52" s="84" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="F52" s="84" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G52" s="84" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="H52" s="84"/>
       <c r="I52" s="84" t="s">
+        <v>553</v>
+      </c>
+      <c r="J52" s="84" t="s">
+        <v>555</v>
+      </c>
+      <c r="K52" s="84" t="s">
         <v>557</v>
       </c>
-      <c r="J52" s="84" t="s">
-        <v>559</v>
-      </c>
-      <c r="K52" s="84" t="s">
-        <v>561</v>
-      </c>
       <c r="L52" s="84" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="M52" s="84"/>
       <c r="N52" s="84" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="O52" s="84" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="P52" s="84" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="Q52" s="84" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="R52" s="84"/>
       <c r="S52" s="93"/>
@@ -7623,42 +7623,42 @@
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="58"/>
       <c r="D54" s="85" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
       <c r="F54" s="85" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G54" s="85" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="H54" s="85"/>
       <c r="I54" s="85" t="s">
+        <v>554</v>
+      </c>
+      <c r="J54" s="85" t="s">
+        <v>556</v>
+      </c>
+      <c r="K54" s="85" t="s">
         <v>558</v>
       </c>
-      <c r="J54" s="85" t="s">
-        <v>560</v>
-      </c>
-      <c r="K54" s="85" t="s">
-        <v>562</v>
-      </c>
       <c r="L54" s="85" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="M54" s="85"/>
       <c r="N54" s="85" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="O54" s="85" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="P54" s="85" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="Q54" s="85" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="R54" s="85"/>
       <c r="S54" s="96"/>
@@ -7687,43 +7687,43 @@
     <row r="56" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="56"/>
       <c r="D56" s="84" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E56" s="84" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="F56" s="84" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G56" s="84" t="s">
         <v>399</v>
       </c>
       <c r="H56" s="84" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="I56" s="84"/>
       <c r="J56" s="84" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="K56" s="84" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="L56" s="84" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="M56" s="84"/>
       <c r="N56" s="84" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="O56" s="84" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="P56" s="84" t="s">
-        <v>573</v>
+        <v>793</v>
       </c>
       <c r="Q56" s="84"/>
       <c r="R56" s="84" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="S56" s="93"/>
       <c r="V56" s="60"/>
@@ -7784,43 +7784,43 @@
     <row r="58" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="58"/>
       <c r="D58" s="85" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E58" s="85" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="F58" s="85" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G58" s="85" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H58" s="85" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="I58" s="85"/>
       <c r="J58" s="85" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="K58" s="85" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="L58" s="85" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="M58" s="85"/>
       <c r="N58" s="85" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="O58" s="85" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="P58" s="85" t="s">
-        <v>574</v>
+        <v>794</v>
       </c>
       <c r="Q58" s="85"/>
       <c r="R58" s="85" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="S58" s="96"/>
       <c r="V58" s="60"/>
@@ -7848,43 +7848,43 @@
     <row r="60" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="56"/>
       <c r="D60" s="84" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="E60" s="84" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F60" s="84" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G60" s="84"/>
       <c r="H60" s="84" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="I60" s="84" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="J60" s="84" t="s">
         <v>442</v>
       </c>
       <c r="K60" s="84"/>
       <c r="L60" s="84" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M60" s="84" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="N60" s="84" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="O60" s="84" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="P60" s="84"/>
       <c r="Q60" s="84" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="R60" s="84" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="S60" s="93"/>
       <c r="V60" s="60"/>
@@ -7945,43 +7945,43 @@
     <row r="62" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="58"/>
       <c r="D62" s="85" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="E62" s="85" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F62" s="85" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G62" s="85"/>
       <c r="H62" s="85" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="I62" s="85" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="J62" s="85" t="s">
         <v>443</v>
       </c>
       <c r="K62" s="85"/>
       <c r="L62" s="85" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M62" s="85" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="N62" s="85" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="O62" s="85" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="P62" s="85"/>
       <c r="Q62" s="85" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="R62" s="85" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="S62" s="96"/>
       <c r="V62" s="60"/>
@@ -8010,40 +8010,40 @@
       <c r="B64" s="56"/>
       <c r="D64" s="84"/>
       <c r="E64" s="84" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="F64" s="84" t="s">
         <v>396</v>
       </c>
       <c r="G64" s="84"/>
       <c r="H64" s="84" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I64" s="84" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="J64" s="84"/>
       <c r="K64" s="84" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="L64" s="84" t="s">
         <v>424</v>
       </c>
       <c r="M64" s="84" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="N64" s="84" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="O64" s="84" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="P64" s="84" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="Q64" s="84"/>
       <c r="R64" s="84" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="S64" s="93"/>
       <c r="V64" s="60"/>
@@ -8105,40 +8105,40 @@
       <c r="B66" s="58"/>
       <c r="D66" s="85"/>
       <c r="E66" s="85" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="F66" s="85" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G66" s="85"/>
       <c r="H66" s="85" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I66" s="85" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="J66" s="85"/>
       <c r="K66" s="85" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="L66" s="85" t="s">
         <v>425</v>
       </c>
       <c r="M66" s="85" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="N66" s="85" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="O66" s="85" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="P66" s="85" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="Q66" s="85"/>
       <c r="R66" s="85" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="S66" s="96"/>
       <c r="V66" s="60"/>
@@ -8166,40 +8166,40 @@
     <row r="68" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="56"/>
       <c r="D68" s="84" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E68" s="84" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="F68" s="84" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G68" s="84"/>
       <c r="H68" s="84" t="s">
         <v>399</v>
       </c>
       <c r="I68" s="84" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="J68" s="84"/>
       <c r="K68" s="84"/>
       <c r="L68" s="84" t="s">
+        <v>588</v>
+      </c>
+      <c r="M68" s="84" t="s">
+        <v>590</v>
+      </c>
+      <c r="N68" s="84" t="s">
+        <v>592</v>
+      </c>
+      <c r="O68" s="84" t="s">
         <v>594</v>
       </c>
-      <c r="M68" s="84" t="s">
+      <c r="P68" s="84" t="s">
         <v>596</v>
       </c>
-      <c r="N68" s="84" t="s">
+      <c r="Q68" s="84" t="s">
         <v>598</v>
-      </c>
-      <c r="O68" s="84" t="s">
-        <v>600</v>
-      </c>
-      <c r="P68" s="84" t="s">
-        <v>602</v>
-      </c>
-      <c r="Q68" s="84" t="s">
-        <v>604</v>
       </c>
       <c r="R68" s="84"/>
       <c r="S68" s="93"/>
@@ -8261,40 +8261,40 @@
     <row r="70" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="58"/>
       <c r="D70" s="85" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E70" s="85" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="F70" s="85" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="G70" s="85"/>
       <c r="H70" s="85" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="I70" s="85" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="J70" s="85"/>
       <c r="K70" s="85"/>
       <c r="L70" s="85" t="s">
+        <v>589</v>
+      </c>
+      <c r="M70" s="85" t="s">
+        <v>591</v>
+      </c>
+      <c r="N70" s="85" t="s">
+        <v>593</v>
+      </c>
+      <c r="O70" s="85" t="s">
         <v>595</v>
       </c>
-      <c r="M70" s="85" t="s">
+      <c r="P70" s="85" t="s">
         <v>597</v>
       </c>
-      <c r="N70" s="85" t="s">
+      <c r="Q70" s="85" t="s">
         <v>599</v>
-      </c>
-      <c r="O70" s="85" t="s">
-        <v>601</v>
-      </c>
-      <c r="P70" s="85" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q70" s="85" t="s">
-        <v>605</v>
       </c>
       <c r="R70" s="85"/>
       <c r="S70" s="96"/>
@@ -8323,44 +8323,44 @@
     <row r="72" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="56"/>
       <c r="D72" s="84" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="E72" s="84" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="F72" s="84" t="s">
+        <v>603</v>
+      </c>
+      <c r="G72" s="84" t="s">
+        <v>605</v>
+      </c>
+      <c r="H72" s="84" t="s">
+        <v>706</v>
+      </c>
+      <c r="I72" s="84" t="s">
+        <v>545</v>
+      </c>
+      <c r="J72" s="84" t="s">
+        <v>581</v>
+      </c>
+      <c r="K72" s="84" t="s">
+        <v>607</v>
+      </c>
+      <c r="L72" s="84" t="s">
         <v>609</v>
-      </c>
-      <c r="G72" s="84" t="s">
-        <v>611</v>
-      </c>
-      <c r="H72" s="84" t="s">
-        <v>714</v>
-      </c>
-      <c r="I72" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="J72" s="84" t="s">
-        <v>587</v>
-      </c>
-      <c r="K72" s="84" t="s">
-        <v>613</v>
-      </c>
-      <c r="L72" s="84" t="s">
-        <v>615</v>
       </c>
       <c r="M72" s="84"/>
       <c r="N72" s="84" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="O72" s="84" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="P72" s="84" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="Q72" s="84" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="R72" s="84"/>
       <c r="S72" s="93"/>
@@ -8422,44 +8422,44 @@
     <row r="74" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="58"/>
       <c r="D74" s="85" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="E74" s="85" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="F74" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="G74" s="85" t="s">
+        <v>606</v>
+      </c>
+      <c r="H74" s="85" t="s">
+        <v>707</v>
+      </c>
+      <c r="I74" s="85" t="s">
+        <v>546</v>
+      </c>
+      <c r="J74" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="K74" s="85" t="s">
+        <v>608</v>
+      </c>
+      <c r="L74" s="85" t="s">
         <v>610</v>
-      </c>
-      <c r="G74" s="85" t="s">
-        <v>612</v>
-      </c>
-      <c r="H74" s="85" t="s">
-        <v>715</v>
-      </c>
-      <c r="I74" s="85" t="s">
-        <v>550</v>
-      </c>
-      <c r="J74" s="85" t="s">
-        <v>610</v>
-      </c>
-      <c r="K74" s="85" t="s">
-        <v>614</v>
-      </c>
-      <c r="L74" s="85" t="s">
-        <v>616</v>
       </c>
       <c r="M74" s="85"/>
       <c r="N74" s="85" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="O74" s="85" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="P74" s="85" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="Q74" s="85" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="R74" s="85"/>
       <c r="S74" s="96"/>
@@ -8488,40 +8488,40 @@
     <row r="76" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="56"/>
       <c r="D76" s="84" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="E76" s="84" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="F76" s="84" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="G76" s="84" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="H76" s="84" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="I76" s="84" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="J76" s="84"/>
       <c r="K76" s="84"/>
       <c r="L76" s="84" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="M76" s="84"/>
       <c r="N76" s="84" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="O76" s="84" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="P76" s="84" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="Q76" s="84" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="R76" s="84"/>
       <c r="S76" s="93"/>
@@ -8583,40 +8583,40 @@
     <row r="78" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="58"/>
       <c r="D78" s="85" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E78" s="85" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F78" s="85" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G78" s="85" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="H78" s="85" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="I78" s="85" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="J78" s="85"/>
       <c r="K78" s="85"/>
       <c r="L78" s="85" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="M78" s="85"/>
       <c r="N78" s="85" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="O78" s="85" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="P78" s="85" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="Q78" s="85" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="R78" s="85"/>
       <c r="S78" s="96"/>
@@ -8646,29 +8646,29 @@
       <c r="B80" s="56"/>
       <c r="D80" s="84"/>
       <c r="E80" s="84" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F80" s="84" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="G80" s="84" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="H80" s="84" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="I80" s="84" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="J80" s="84"/>
       <c r="K80" s="84" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="L80" s="84" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="M80" s="84" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="N80" s="84"/>
       <c r="O80" s="84" t="s">
@@ -8676,10 +8676,10 @@
       </c>
       <c r="P80" s="84"/>
       <c r="Q80" s="84" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="R80" s="84" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="S80" s="93"/>
       <c r="V80" s="60"/>
@@ -8741,29 +8741,29 @@
       <c r="B82" s="58"/>
       <c r="D82" s="85"/>
       <c r="E82" s="85" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F82" s="85" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="G82" s="85" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H82" s="85" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="I82" s="85" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="J82" s="85"/>
       <c r="K82" s="85" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="L82" s="85" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="M82" s="85" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="N82" s="85"/>
       <c r="O82" s="85" t="s">
@@ -8771,10 +8771,10 @@
       </c>
       <c r="P82" s="85"/>
       <c r="Q82" s="85" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="R82" s="85" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="S82" s="96"/>
       <c r="V82" s="60"/>
@@ -8802,45 +8802,45 @@
     <row r="84" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="56"/>
       <c r="D84" s="84" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E84" s="84" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F84" s="84" t="s">
         <v>430</v>
       </c>
       <c r="G84" s="84" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="H84" s="84" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="I84" s="84" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="J84" s="84" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K84" s="84"/>
       <c r="L84" s="84" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="M84" s="84" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="N84" s="84" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="O84" s="84"/>
       <c r="P84" s="84" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="Q84" s="84" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="R84" s="84" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="S84" s="93"/>
       <c r="V84" s="60"/>
@@ -8901,45 +8901,45 @@
     <row r="86" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="58"/>
       <c r="D86" s="85" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E86" s="85" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F86" s="85" t="s">
         <v>431</v>
       </c>
       <c r="G86" s="85" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="H86" s="85" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="I86" s="85" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="J86" s="85" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="K86" s="85"/>
       <c r="L86" s="85" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="M86" s="85" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="N86" s="85" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="O86" s="85"/>
       <c r="P86" s="85" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="Q86" s="85" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="R86" s="85" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="S86" s="96"/>
       <c r="V86" s="60"/>
@@ -8967,42 +8967,42 @@
     <row r="88" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="56"/>
       <c r="D88" s="84" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E88" s="84" t="s">
         <v>434</v>
       </c>
       <c r="F88" s="84" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="G88" s="84" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H88" s="84" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I88" s="84"/>
       <c r="J88" s="84" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="K88" s="84" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L88" s="84" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="M88" s="84" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="N88" s="84"/>
       <c r="O88" s="84" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="P88" s="84" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="Q88" s="84" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="R88" s="84"/>
       <c r="S88" s="93"/>
@@ -9064,42 +9064,42 @@
     <row r="90" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="58"/>
       <c r="D90" s="85" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E90" s="85" t="s">
         <v>435</v>
       </c>
       <c r="F90" s="85" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="G90" s="85" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H90" s="85" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I90" s="85"/>
       <c r="J90" s="85" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="K90" s="85" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="L90" s="85" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="M90" s="85" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="N90" s="85"/>
       <c r="O90" s="85" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="P90" s="85" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="Q90" s="85" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="R90" s="85"/>
       <c r="S90" s="96"/>
@@ -9128,43 +9128,43 @@
     <row r="92" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="56"/>
       <c r="D92" s="84" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="E92" s="84" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="F92" s="84"/>
       <c r="G92" s="84" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="H92" s="84" t="s">
         <v>424</v>
       </c>
       <c r="I92" s="84" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="J92" s="84" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K92" s="84" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="L92" s="84"/>
       <c r="M92" s="84"/>
       <c r="N92" s="84" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="O92" s="84" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="P92" s="84" t="s">
         <v>430</v>
       </c>
       <c r="Q92" s="84" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="R92" s="84" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="S92" s="93"/>
       <c r="V92" s="60"/>
@@ -9225,43 +9225,43 @@
     <row r="94" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="58"/>
       <c r="D94" s="85" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="E94" s="85" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="F94" s="85"/>
       <c r="G94" s="85" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="H94" s="85" t="s">
         <v>425</v>
       </c>
       <c r="I94" s="85" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="J94" s="85" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="K94" s="85" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="L94" s="85"/>
       <c r="M94" s="85"/>
       <c r="N94" s="85" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="O94" s="85" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="P94" s="85" t="s">
         <v>431</v>
       </c>
       <c r="Q94" s="85" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="R94" s="85" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="S94" s="96"/>
       <c r="V94" s="60"/>
@@ -9289,10 +9289,10 @@
     <row r="96" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="56"/>
       <c r="D96" s="84" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="E96" s="84" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="F96" s="84"/>
       <c r="G96" s="84"/>
@@ -9344,10 +9344,10 @@
     <row r="98" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="58"/>
       <c r="D98" s="85" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="E98" s="85" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F98" s="85"/>
       <c r="G98" s="85"/>
@@ -9473,27 +9473,27 @@
       <c r="D104" s="84"/>
       <c r="E104" s="84"/>
       <c r="F104" s="84" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="G104" s="84" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="H104" s="84"/>
       <c r="I104" s="84" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="J104" s="84" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K104" s="84" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L104" s="84"/>
       <c r="M104" s="84" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="N104" s="84" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="O104" s="84" t="s">
         <v>415</v>
@@ -9503,7 +9503,7 @@
       </c>
       <c r="Q104" s="84"/>
       <c r="R104" s="84" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="S104" s="93"/>
       <c r="V104" s="60"/>
@@ -9566,37 +9566,37 @@
       <c r="D106" s="85"/>
       <c r="E106" s="85"/>
       <c r="F106" s="85" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="G106" s="85" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="H106" s="85"/>
       <c r="I106" s="85" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="J106" s="85" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K106" s="85" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L106" s="85"/>
       <c r="M106" s="85" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="N106" s="85" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="O106" s="85" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="P106" s="85" t="s">
         <v>441</v>
       </c>
       <c r="Q106" s="85"/>
       <c r="R106" s="85" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="S106" s="96"/>
       <c r="V106" s="60"/>
@@ -9624,27 +9624,27 @@
     <row r="108" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="56"/>
       <c r="D108" s="84" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="E108" s="84" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="F108" s="84" t="s">
         <v>442</v>
       </c>
       <c r="G108" s="84"/>
       <c r="H108" s="84" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="I108" s="84" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="J108" s="84" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="K108" s="84"/>
       <c r="L108" s="84" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="M108" s="84" t="s">
         <v>420</v>
@@ -9654,13 +9654,13 @@
       </c>
       <c r="O108" s="84"/>
       <c r="P108" s="84" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="Q108" s="84" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="R108" s="84" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="S108" s="93"/>
       <c r="V108" s="60"/>
@@ -9721,43 +9721,43 @@
     <row r="110" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="58"/>
       <c r="D110" s="85" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="E110" s="85" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="F110" s="85" t="s">
         <v>443</v>
       </c>
       <c r="G110" s="85"/>
       <c r="H110" s="85" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="I110" s="85" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="J110" s="85" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="K110" s="85"/>
       <c r="L110" s="85" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="M110" s="85" t="s">
         <v>421</v>
       </c>
       <c r="N110" s="85" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="O110" s="85"/>
       <c r="P110" s="85" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="Q110" s="85" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="R110" s="85" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="S110" s="96"/>
       <c r="V110" s="60"/>
@@ -9792,35 +9792,35 @@
         <v>413</v>
       </c>
       <c r="G112" s="84" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="H112" s="84" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I112" s="84" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="J112" s="84" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="K112" s="84" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L112" s="84" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M112" s="84"/>
       <c r="N112" s="84" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="O112" s="84" t="s">
         <v>415</v>
       </c>
       <c r="P112" s="84" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="Q112" s="84" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="R112" s="84"/>
       <c r="S112" s="93"/>
@@ -9886,38 +9886,38 @@
         <v>421</v>
       </c>
       <c r="F114" s="85" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="G114" s="85" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="H114" s="85" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="I114" s="85" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="J114" s="85" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="K114" s="85" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L114" s="85" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="M114" s="85"/>
       <c r="N114" s="85" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="O114" s="85" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="P114" s="85" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="Q114" s="85" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="R114" s="85"/>
       <c r="S114" s="96"/>
@@ -9946,19 +9946,19 @@
     <row r="116" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="56"/>
       <c r="D116" s="84" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="E116" s="84" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="F116" s="84" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="G116" s="84" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H116" s="84" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="I116" s="84" t="s">
         <v>440</v>
@@ -10015,19 +10015,19 @@
     <row r="118" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B118" s="58"/>
       <c r="D118" s="85" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E118" s="85" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="F118" s="85" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="G118" s="85" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H118" s="85" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I118" s="85" t="s">
         <v>441</v>
@@ -10152,36 +10152,36 @@
       <c r="D124" s="84"/>
       <c r="E124" s="84"/>
       <c r="F124" s="84" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G124" s="84" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="H124" s="84" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="I124" s="84" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="J124" s="84" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="K124" s="84"/>
       <c r="L124" s="84" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="M124" s="84" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="N124" s="84" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="O124" s="84" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="P124" s="84"/>
       <c r="Q124" s="84" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="R124" s="84" t="s">
         <v>442</v>
@@ -10247,36 +10247,36 @@
       <c r="D126" s="85"/>
       <c r="E126" s="85"/>
       <c r="F126" s="85" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G126" s="85" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="H126" s="85" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="I126" s="85" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="J126" s="85" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="K126" s="85"/>
       <c r="L126" s="85" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="M126" s="85" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="N126" s="85" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="O126" s="85" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="P126" s="85"/>
       <c r="Q126" s="85" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="R126" s="85" t="s">
         <v>443</v>
@@ -10308,40 +10308,40 @@
       <c r="B128" s="56"/>
       <c r="D128" s="84"/>
       <c r="E128" s="84" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="F128" s="84" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G128" s="84" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="H128" s="84" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="I128" s="84"/>
       <c r="J128" s="84" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="K128" s="84" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="L128" s="84"/>
       <c r="M128" s="84" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="N128" s="84" t="s">
-        <v>694</v>
+        <v>797</v>
       </c>
       <c r="O128" s="84" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="P128" s="84"/>
       <c r="Q128" s="84" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="R128" s="84" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="S128" s="93"/>
       <c r="V128" s="60"/>
@@ -10355,7 +10355,7 @@
         <v>191</v>
       </c>
       <c r="E129" s="80" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="F129" s="80" t="s">
         <v>257</v>
@@ -10403,40 +10403,40 @@
       <c r="B130" s="58"/>
       <c r="D130" s="85"/>
       <c r="E130" s="85" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="F130" s="85" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G130" s="85" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="H130" s="85" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="I130" s="85"/>
       <c r="J130" s="85" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="K130" s="85" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="L130" s="85"/>
       <c r="M130" s="85" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="N130" s="85" t="s">
-        <v>695</v>
+        <v>798</v>
       </c>
       <c r="O130" s="85" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="P130" s="85"/>
       <c r="Q130" s="85" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="R130" s="85" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="S130" s="96"/>
       <c r="V130" s="60"/>
@@ -10464,16 +10464,16 @@
     <row r="132" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B132" s="56"/>
       <c r="D132" s="84" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E132" s="84" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="F132" s="84" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="G132" s="84" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="H132" s="84"/>
       <c r="I132" s="84"/>
@@ -10525,16 +10525,16 @@
     <row r="134" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B134" s="58"/>
       <c r="D134" s="85" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="E134" s="85" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="F134" s="85" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="G134" s="85" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="H134" s="85"/>
       <c r="I134" s="85"/>
